--- a/biology/Zoologie/Conus_nybakkeni/Conus_nybakkeni.xlsx
+++ b/biology/Zoologie/Conus_nybakkeni/Conus_nybakkeni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus nybakkeni est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus nybakkeni a été décrite pour la première fois en 2012 par les malacologistes Manuel Jimenez Tenorio (d)[1], John Keith Tucker[2] et Henry William Chaney[3] dans « A conchological iconography »[4],[5].
-Synonymes
-Conus (Dauciconus) nybakkeni (Tenorio, J. K. Tucker &amp; Chaney, 2012) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus nybakkeni a été décrite pour la première fois en 2012 par les malacologistes Manuel Jimenez Tenorio (d), John Keith Tucker et Henry William Chaney dans « A conchological iconography »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_nybakkeni</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_nybakkeni</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) nybakkeni (Tenorio, J. K. Tucker &amp; Chaney, 2012) · appellation alternative
 Gradiconus nybakkeni Tenorio, J. K. Tucker &amp; Chaney, 2012 · non accepté</t>
         </is>
       </c>
